--- a/biology/Médecine/1442_en_santé_et_médecine/1442_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1442_en_santé_et_médecine/1442_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1442_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1442_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1442 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1442_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1442_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Construction de l'hôpital du Saint-Esprit (Szpital Świętego Ducha (pl)) de Varsovie, probablement premier d'Europe à prendre en charge les malades du cancer[1].
-Fondation par Walter Hungerford de l'hôpital Saint-Jean et Sainte-Catherine (Hospital of St. John and St. Katherine) à Heytesbury dans le Wiltshire en Angleterre[2].
-Fondation par Jean d'Esmine à Bossière, en Brabant, d'un hôpital pourvu « d'un lit pour héberger deux pauvres[3] ».
-Fondation d'un hôpital de pèlerins à Puente la Reina, en Navarre, par Jean de Caumont, grand prieur des hospitaliers[4].
-À Toulon, en Provence, un hospice du Saint-Esprit est attesté rue des Maurels, aujourd'hui rue Félix-Pyat[5].
-Selon les nouveaux statuts de la faculté de médecine de Bologne, les autorités judiciaires doivent fournir par an, à la demande du recteur ou du conseiller et à des fins d’enseignement et de dissection publique, un cadavre de chacun des deux sexes, les corps étant ceux de criminels de basse extraction et, si possible, étrangers à la ville[6].
-Vers 1442 : selon Pietro Ranzano, évêque de Lucera, un chirurgien du nom de Branca pratique à Catane, en Sicile, la première rhinoplastie connue en Europe[7].
-1442-1443 : fondation de l'hôpital de Vesoul, en Bourgogne, par Jean Sardon, licencié en droit[8],[9].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Construction de l'hôpital du Saint-Esprit (Szpital Świętego Ducha (pl)) de Varsovie, probablement premier d'Europe à prendre en charge les malades du cancer.
+Fondation par Walter Hungerford de l'hôpital Saint-Jean et Sainte-Catherine (Hospital of St. John and St. Katherine) à Heytesbury dans le Wiltshire en Angleterre.
+Fondation par Jean d'Esmine à Bossière, en Brabant, d'un hôpital pourvu « d'un lit pour héberger deux pauvres ».
+Fondation d'un hôpital de pèlerins à Puente la Reina, en Navarre, par Jean de Caumont, grand prieur des hospitaliers.
+À Toulon, en Provence, un hospice du Saint-Esprit est attesté rue des Maurels, aujourd'hui rue Félix-Pyat.
+Selon les nouveaux statuts de la faculté de médecine de Bologne, les autorités judiciaires doivent fournir par an, à la demande du recteur ou du conseiller et à des fins d’enseignement et de dissection publique, un cadavre de chacun des deux sexes, les corps étant ceux de criminels de basse extraction et, si possible, étrangers à la ville.
+Vers 1442 : selon Pietro Ranzano, évêque de Lucera, un chirurgien du nom de Branca pratique à Catane, en Sicile, la première rhinoplastie connue en Europe.
+1442-1443 : fondation de l'hôpital de Vesoul, en Bourgogne, par Jean Sardon, licencié en droit,.</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1442_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1442_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,11 +562,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ephraim Al-Naqawa (né en 1359), rabbin, médecin et théologien, fondateur de la communauté juive de Tlemcen[10].
-Jean de Breda (né à une date inconnue), maître ès arts à l'université de Paris, docteur en médecine à Bologne, et professeur à Cologne[11].
-Après 1442 : Gilles Canivet (né à une date inconnue), professeur de médecine à Paris, siège parmi les juges de Jeanne d'Arc en 1431 à Rouen[11].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ephraim Al-Naqawa (né en 1359), rabbin, médecin et théologien, fondateur de la communauté juive de Tlemcen.
+Jean de Breda (né à une date inconnue), maître ès arts à l'université de Paris, docteur en médecine à Bologne, et professeur à Cologne.
+Après 1442 : Gilles Canivet (né à une date inconnue), professeur de médecine à Paris, siège parmi les juges de Jeanne d'Arc en 1431 à Rouen.</t>
         </is>
       </c>
     </row>
